--- a/databases/oportunidades/Oportunidad - Transición regulada a energías renovables.xlsx
+++ b/databases/oportunidades/Oportunidad - Transición regulada a energías renovables.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/excel_automation/databases/oportunidades/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msuarez\OneDrive\CEPLAN\CeplanPythonCode\excel_automation\databases\oportunidades\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{E9ECDC6E-1664-4DC4-A586-B186C73000BB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{7038D710-BB08-4C03-A91F-9C55C5F431BA}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{839D3546-DCAF-4543-BC92-BBCE69B51874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D6DC3BE-912A-4DBF-87C5-16962B81A5A3}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{D880168E-D94C-44F4-8263-DF109DC04F29}"/>
   </bookViews>
@@ -23,14 +23,12 @@
   <externalReferences>
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
   </externalReferences>
   <definedNames>
-    <definedName name="\a">'[2]R. Natural'!#REF!</definedName>
-    <definedName name="_A2">'[2]R. Natural'!#REF!</definedName>
+    <definedName name="\a">'[1]R. Natural'!#REF!</definedName>
+    <definedName name="_A2">'[1]R. Natural'!#REF!</definedName>
     <definedName name="_Hlk152066898" localSheetId="0">Index!#REF!</definedName>
-    <definedName name="_xlnm.Database">[3]OPERACIONES!#REF!</definedName>
+    <definedName name="_xlnm.Database">[2]OPERACIONES!#REF!</definedName>
     <definedName name="FemaleDa">#REF!</definedName>
     <definedName name="INDICEALFABETICO">#REF!</definedName>
     <definedName name="Input_File">#REF!</definedName>
@@ -323,16 +321,16 @@
     <t>Combinado</t>
   </si>
   <si>
-    <t>Var (%) 15/23</t>
-  </si>
-  <si>
-    <t>$Departamento: evolución de la producción de energía renovable, según departamentos, 2015-2023</t>
-  </si>
-  <si>
-    <t>Perú: producción de energía por departamento y por tipo, 2023</t>
-  </si>
-  <si>
     <t>Página 90</t>
+  </si>
+  <si>
+    <t>Perú: producción de energía por departamento y por tipo, 2022</t>
+  </si>
+  <si>
+    <t>Var (%) 23/15</t>
+  </si>
+  <si>
+    <t>$Departamento: evolución de la producción de energía renovable, 2015-2023</t>
   </si>
 </sst>
 </file>
@@ -344,7 +342,7 @@
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,6 +542,14 @@
     <font>
       <sz val="10.5"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1102,7 +1108,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="44">
+  <cellStyleXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1147,6 +1153,7 @@
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1274,11 +1281,11 @@
     <xf numFmtId="0" fontId="21" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="28" fillId="0" borderId="0" xfId="44" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="44">
+  <cellStyles count="45">
     <cellStyle name="20% - Énfasis1" xfId="21" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis2" xfId="25" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Énfasis3" xfId="29" builtinId="38" customBuiltin="1"/>
@@ -1310,6 +1317,7 @@
     <cellStyle name="Énfasis5" xfId="36" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Énfasis6" xfId="40" builtinId="49" customBuiltin="1"/>
     <cellStyle name="Entrada" xfId="11" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Hipervínculo" xfId="44" builtinId="8"/>
     <cellStyle name="Incorrecto" xfId="9" builtinId="27" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="10" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1863,7 +1871,7 @@
             <a:pPr>
               <a:defRPr sz="900"/>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="50010002"/>
@@ -2029,7 +2037,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2149,7 +2157,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fig2'!$C$1</c:f>
+              <c:f>'Fig2'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2197,7 +2205,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2269,7 +2277,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fig2'!$C$2:$C$11</c:f>
+              <c:f>'Fig2'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2362,7 +2370,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2482,7 +2490,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fig2'!$E$1</c:f>
+              <c:f>'Fig2'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2532,7 +2540,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="ctr"/>
@@ -2604,7 +2612,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fig2'!$E$2:$E$11</c:f>
+              <c:f>'Fig2'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2716,7 +2724,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
+                <a:endParaRPr lang="es-PE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="t"/>
@@ -2883,7 +2891,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601248479"/>
@@ -2955,7 +2963,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="es-ES"/>
+              <a:endParaRPr lang="es-PE"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2984,7 +2992,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="601243903"/>
@@ -3026,7 +3034,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1616453631"/>
@@ -3045,6 +3053,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1625102799"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3092,7 +3101,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-ES"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3124,7 +3133,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-ES"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3814,734 +3823,6 @@
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
-      <sheetName val="Index"/>
-      <sheetName val="Fig1"/>
-      <sheetName val="Fig2"/>
-      <sheetName val="Fig3"/>
-      <sheetName val="Tab1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Térmica</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Hidráulica</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Eólica y solar</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="B2">
-            <v>3942.56</v>
-          </cell>
-          <cell r="C2">
-            <v>12937.55</v>
-          </cell>
-          <cell r="D2">
-            <v>0</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>3955.83</v>
-          </cell>
-          <cell r="C3">
-            <v>13323.57</v>
-          </cell>
-          <cell r="D3">
-            <v>0.41</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>4738.32</v>
-          </cell>
-          <cell r="C4">
-            <v>13214.53</v>
-          </cell>
-          <cell r="D4">
-            <v>0.56000000000000005</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>4773.7299999999996</v>
-          </cell>
-          <cell r="C5">
-            <v>13808.29</v>
-          </cell>
-          <cell r="D5">
-            <v>0.53</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>4508.41</v>
-          </cell>
-          <cell r="C6">
-            <v>14540.58</v>
-          </cell>
-          <cell r="D6">
-            <v>0.62</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2000</v>
-          </cell>
-          <cell r="B7">
-            <v>3745.8</v>
-          </cell>
-          <cell r="C7">
-            <v>16176.05</v>
-          </cell>
-          <cell r="D7">
-            <v>0.85</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2001</v>
-          </cell>
-          <cell r="B8">
-            <v>3169.75</v>
-          </cell>
-          <cell r="C8">
-            <v>17614.96</v>
-          </cell>
-          <cell r="D8">
-            <v>1.23</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2002</v>
-          </cell>
-          <cell r="B9">
-            <v>3940.97</v>
-          </cell>
-          <cell r="C9">
-            <v>18040.13</v>
-          </cell>
-          <cell r="D9">
-            <v>1.23</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2003</v>
-          </cell>
-          <cell r="B10">
-            <v>4388.41</v>
-          </cell>
-          <cell r="C10">
-            <v>18533.72</v>
-          </cell>
-          <cell r="D10">
-            <v>1.23</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2004</v>
-          </cell>
-          <cell r="B11">
-            <v>6740.45</v>
-          </cell>
-          <cell r="C11">
-            <v>17525.34</v>
-          </cell>
-          <cell r="D11">
-            <v>1.23</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12">
-            <v>2005</v>
-          </cell>
-          <cell r="B12">
-            <v>7531.52</v>
-          </cell>
-          <cell r="C12">
-            <v>17976.990000000002</v>
-          </cell>
-          <cell r="D12">
-            <v>1.23</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13">
-            <v>2006</v>
-          </cell>
-          <cell r="B13">
-            <v>7774.26</v>
-          </cell>
-          <cell r="C13">
-            <v>19594.349999999999</v>
-          </cell>
-          <cell r="D13">
-            <v>1.23</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14">
-            <v>2007</v>
-          </cell>
-          <cell r="B14">
-            <v>10393.040000000001</v>
-          </cell>
-          <cell r="C14">
-            <v>19548.78</v>
-          </cell>
-          <cell r="D14">
-            <v>1.23</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15">
-            <v>2008</v>
-          </cell>
-          <cell r="B15">
-            <v>13402.26</v>
-          </cell>
-          <cell r="C15">
-            <v>19059.62</v>
-          </cell>
-          <cell r="D15">
-            <v>1.23</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16">
-            <v>2009</v>
-          </cell>
-          <cell r="B16">
-            <v>13039.73</v>
-          </cell>
-          <cell r="C16">
-            <v>19903.78</v>
-          </cell>
-          <cell r="D16">
-            <v>1.23</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17">
-            <v>2010</v>
-          </cell>
-          <cell r="B17">
-            <v>15854.65</v>
-          </cell>
-          <cell r="C17">
-            <v>20052.13</v>
-          </cell>
-          <cell r="D17">
-            <v>1.23</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18">
-            <v>2011</v>
-          </cell>
-          <cell r="B18">
-            <v>17247.91</v>
-          </cell>
-          <cell r="C18">
-            <v>21557.33</v>
-          </cell>
-          <cell r="D18">
-            <v>1.23</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19">
-            <v>2012</v>
-          </cell>
-          <cell r="B19">
-            <v>18919.18</v>
-          </cell>
-          <cell r="C19">
-            <v>22044.04</v>
-          </cell>
-          <cell r="D19">
-            <v>56.809999999999995</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20">
-            <v>2013</v>
-          </cell>
-          <cell r="B20">
-            <v>20812.46</v>
-          </cell>
-          <cell r="C20">
-            <v>22319.56</v>
-          </cell>
-          <cell r="D20">
-            <v>198.16</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21">
-            <v>2014</v>
-          </cell>
-          <cell r="B21">
-            <v>22882.32</v>
-          </cell>
-          <cell r="C21">
-            <v>22210.66</v>
-          </cell>
-          <cell r="D21">
-            <v>456.84000000000003</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22">
-            <v>2015</v>
-          </cell>
-          <cell r="B22">
-            <v>23721.8</v>
-          </cell>
-          <cell r="C22">
-            <v>23722.75</v>
-          </cell>
-          <cell r="D22">
-            <v>825.86</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23">
-            <v>2016</v>
-          </cell>
-          <cell r="B23">
-            <v>26223.45</v>
-          </cell>
-          <cell r="C23">
-            <v>24171.69</v>
-          </cell>
-          <cell r="D23">
-            <v>1304.8399999999999</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24">
-            <v>2017</v>
-          </cell>
-          <cell r="B24">
-            <v>22264.91</v>
-          </cell>
-          <cell r="C24">
-            <v>29074.51</v>
-          </cell>
-          <cell r="D24">
-            <v>1360.63</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25">
-            <v>2018</v>
-          </cell>
-          <cell r="B25">
-            <v>21907.86</v>
-          </cell>
-          <cell r="C25">
-            <v>30737.46</v>
-          </cell>
-          <cell r="D25">
-            <v>2247.84</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26">
-            <v>2019</v>
-          </cell>
-          <cell r="B26">
-            <v>23088.32</v>
-          </cell>
-          <cell r="C26">
-            <v>31462.09</v>
-          </cell>
-          <cell r="D26">
-            <v>2418.1</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27">
-            <v>2020</v>
-          </cell>
-          <cell r="B27">
-            <v>19641.099999999999</v>
-          </cell>
-          <cell r="C27">
-            <v>30510.3</v>
-          </cell>
-          <cell r="D27">
-            <v>2592.31</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>2021</v>
-          </cell>
-          <cell r="B28">
-            <v>22847.06</v>
-          </cell>
-          <cell r="C28">
-            <v>31925.68</v>
-          </cell>
-          <cell r="D28">
-            <v>2624.27</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29">
-            <v>2022</v>
-          </cell>
-          <cell r="B29">
-            <v>27215.91</v>
-          </cell>
-          <cell r="C29">
-            <v>29743.8</v>
-          </cell>
-          <cell r="D29">
-            <v>2752.8599999999997</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30">
-            <v>2023</v>
-          </cell>
-          <cell r="B30">
-            <v>29667.71</v>
-          </cell>
-          <cell r="C30">
-            <v>29087.64</v>
-          </cell>
-          <cell r="D30">
-            <v>3312.01</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Total RER</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Porcentaje RER</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2014</v>
-          </cell>
-          <cell r="B2">
-            <v>1591.6</v>
-          </cell>
-          <cell r="C2">
-            <v>3.7999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2015</v>
-          </cell>
-          <cell r="B3">
-            <v>2162.34</v>
-          </cell>
-          <cell r="C3">
-            <v>4.8000000000000001E-2</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2016</v>
-          </cell>
-          <cell r="B4">
-            <v>2584.3000000000002</v>
-          </cell>
-          <cell r="C4">
-            <v>5.2999999999999999E-2</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2017</v>
-          </cell>
-          <cell r="B5">
-            <v>2777.9</v>
-          </cell>
-          <cell r="C5">
-            <v>5.5E-2</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2018</v>
-          </cell>
-          <cell r="B6">
-            <v>3955.6</v>
-          </cell>
-          <cell r="C6">
-            <v>7.5542961274303905E-2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2019</v>
-          </cell>
-          <cell r="B7">
-            <v>4817.2</v>
-          </cell>
-          <cell r="C7">
-            <v>8.5000000000000006E-2</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2020</v>
-          </cell>
-          <cell r="B8">
-            <v>5328.2897199999998</v>
-          </cell>
-          <cell r="C8">
-            <v>9.8000000000000004E-2</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2021</v>
-          </cell>
-          <cell r="B9">
-            <v>5700.0454799999998</v>
-          </cell>
-          <cell r="C9">
-            <v>9.7000000000000003E-2</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2022</v>
-          </cell>
-          <cell r="B10">
-            <v>5584.6868700000005</v>
-          </cell>
-          <cell r="C10">
-            <v>9.0999999999999998E-2</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2023</v>
-          </cell>
-          <cell r="B11">
-            <v>6234.81718</v>
-          </cell>
-          <cell r="C11">
-            <v>9.8000000000000004E-2</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>Mini-hidráulica</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>Biomasa y biogas</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>Solar</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>Eólica</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2014</v>
-          </cell>
-          <cell r="B2">
-            <v>906.78</v>
-          </cell>
-          <cell r="C2">
-            <v>229.17</v>
-          </cell>
-          <cell r="D2">
-            <v>199.3</v>
-          </cell>
-          <cell r="E2">
-            <v>256.31</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>2015</v>
-          </cell>
-          <cell r="B3">
-            <v>1138.32</v>
-          </cell>
-          <cell r="C3">
-            <v>199.39</v>
-          </cell>
-          <cell r="D3">
-            <v>230.26</v>
-          </cell>
-          <cell r="E3">
-            <v>594.37</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>2016</v>
-          </cell>
-          <cell r="B4">
-            <v>1077.1600000000001</v>
-          </cell>
-          <cell r="C4">
-            <v>203.56655000000001</v>
-          </cell>
-          <cell r="D4">
-            <v>241.00855899999999</v>
-          </cell>
-          <cell r="E4">
-            <v>1062.6026850000001</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>2017</v>
-          </cell>
-          <cell r="B5">
-            <v>1232.52</v>
-          </cell>
-          <cell r="C5">
-            <v>185.92</v>
-          </cell>
-          <cell r="D5">
-            <v>287.2</v>
-          </cell>
-          <cell r="E5">
-            <v>1072.205868</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>2018</v>
-          </cell>
-          <cell r="B6">
-            <v>1496.3</v>
-          </cell>
-          <cell r="C6">
-            <v>211</v>
-          </cell>
-          <cell r="D6">
-            <v>745.4</v>
-          </cell>
-          <cell r="E6">
-            <v>1501.2</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>2019</v>
-          </cell>
-          <cell r="B7">
-            <v>2089</v>
-          </cell>
-          <cell r="C7">
-            <v>311.39999999999998</v>
-          </cell>
-          <cell r="D7">
-            <v>763</v>
-          </cell>
-          <cell r="E7">
-            <v>1653.8</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>2020</v>
-          </cell>
-          <cell r="B8">
-            <v>2432.6829400000001</v>
-          </cell>
-          <cell r="C8">
-            <v>304.60296</v>
-          </cell>
-          <cell r="D8">
-            <v>778.12811999999997</v>
-          </cell>
-          <cell r="E8">
-            <v>1812.8757000000001</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9">
-            <v>2021</v>
-          </cell>
-          <cell r="B9">
-            <v>2720.8750299999997</v>
-          </cell>
-          <cell r="C9">
-            <v>356.38292999999999</v>
-          </cell>
-          <cell r="D9">
-            <v>801.43893000000003</v>
-          </cell>
-          <cell r="E9">
-            <v>1821.3485900000001</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10">
-            <v>2022</v>
-          </cell>
-          <cell r="B10">
-            <v>2478.2602900000002</v>
-          </cell>
-          <cell r="C10">
-            <v>355.06572999999997</v>
-          </cell>
-          <cell r="D10">
-            <v>820.71794999999997</v>
-          </cell>
-          <cell r="E10">
-            <v>1930.6428899999999</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11">
-            <v>2023</v>
-          </cell>
-          <cell r="B11">
-            <v>2582.84755</v>
-          </cell>
-          <cell r="C11">
-            <v>341.48608000000002</v>
-          </cell>
-          <cell r="D11">
-            <v>956.39319999999998</v>
-          </cell>
-          <cell r="E11">
-            <v>2354.0903600000001</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="4" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
       <sheetName val="Hoja1"/>
       <sheetName val="Pob. y Ubigeo"/>
       <sheetName val="R. Natural"/>
@@ -4555,7 +3836,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -4575,19 +3856,6 @@
       <sheetData sheetId="4" refreshError="1"/>
       <sheetData sheetId="5" refreshError="1"/>
       <sheetData sheetId="6" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="t10 - Fig 2 y 3"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5179,7 +4447,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5269,12 +4537,12 @@
         <v>29</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="45" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
@@ -5291,7 +4559,7 @@
         <v>13</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>25</v>
@@ -5300,10 +4568,10 @@
         <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F5" s="3"/>
-      <c r="G5" s="45" t="s">
+      <c r="G5" s="3" t="s">
         <v>17</v>
       </c>
     </row>
@@ -5319,7 +4587,7 @@
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="45" t="s">
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
     </row>
@@ -5340,6 +4608,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" xr:uid="{A0AEFDF5-C6A2-46DA-9B46-C724EF1CE0D2}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{66FDA69C-28F0-45DE-9FCB-D611EE763311}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6024,15 +5293,15 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" customWidth="1"/>
-    <col min="4" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
@@ -6042,14 +5311,14 @@
       <c r="B1" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>38</v>
+      <c r="C1" s="8" t="s">
+        <v>35</v>
       </c>
       <c r="D1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="8" t="s">
-        <v>35</v>
+      <c r="E1" s="9" t="s">
+        <v>38</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>36</v>
@@ -6063,13 +5332,13 @@
         <v>906.78</v>
       </c>
       <c r="C2" s="12">
-        <v>229.17</v>
+        <v>256.31</v>
       </c>
       <c r="D2" s="12">
         <v>199.3</v>
       </c>
       <c r="E2" s="12">
-        <v>256.31</v>
+        <v>229.17</v>
       </c>
       <c r="F2" s="15">
         <v>3.7999999999999999E-2</v>
@@ -6083,13 +5352,13 @@
         <v>1138.32</v>
       </c>
       <c r="C3" s="12">
-        <v>199.39</v>
+        <v>594.37</v>
       </c>
       <c r="D3" s="12">
         <v>230.26</v>
       </c>
       <c r="E3" s="12">
-        <v>594.37</v>
+        <v>199.39</v>
       </c>
       <c r="F3" s="15">
         <v>4.8000000000000001E-2</v>
@@ -6103,13 +5372,13 @@
         <v>1077.1600000000001</v>
       </c>
       <c r="C4" s="12">
-        <v>203.56655000000001</v>
+        <v>1062.6026850000001</v>
       </c>
       <c r="D4" s="12">
         <v>241.00855899999999</v>
       </c>
       <c r="E4" s="12">
-        <v>1062.6026850000001</v>
+        <v>203.56655000000001</v>
       </c>
       <c r="F4" s="15">
         <v>5.2999999999999999E-2</v>
@@ -6123,13 +5392,13 @@
         <v>1232.52</v>
       </c>
       <c r="C5" s="12">
-        <v>185.92</v>
+        <v>1072.205868</v>
       </c>
       <c r="D5" s="12">
         <v>287.2</v>
       </c>
       <c r="E5" s="12">
-        <v>1072.205868</v>
+        <v>185.92</v>
       </c>
       <c r="F5" s="15">
         <v>5.5E-2</v>
@@ -6143,13 +5412,13 @@
         <v>1496.3</v>
       </c>
       <c r="C6" s="12">
-        <v>211</v>
+        <v>1501.2</v>
       </c>
       <c r="D6" s="12">
         <v>745.4</v>
       </c>
       <c r="E6" s="12">
-        <v>1501.2</v>
+        <v>211</v>
       </c>
       <c r="F6" s="15">
         <v>7.5542961274303905E-2</v>
@@ -6163,13 +5432,13 @@
         <v>2089</v>
       </c>
       <c r="C7" s="12">
-        <v>311.39999999999998</v>
+        <v>1653.8</v>
       </c>
       <c r="D7" s="12">
         <v>763</v>
       </c>
       <c r="E7" s="12">
-        <v>1653.8</v>
+        <v>311.39999999999998</v>
       </c>
       <c r="F7" s="15">
         <v>8.5000000000000006E-2</v>
@@ -6183,13 +5452,13 @@
         <v>2432.6829400000001</v>
       </c>
       <c r="C8" s="12">
-        <v>304.60296</v>
+        <v>1812.8757000000001</v>
       </c>
       <c r="D8" s="12">
         <v>778.12811999999997</v>
       </c>
       <c r="E8" s="12">
-        <v>1812.8757000000001</v>
+        <v>304.60296</v>
       </c>
       <c r="F8" s="15">
         <v>9.8000000000000004E-2</v>
@@ -6203,13 +5472,13 @@
         <v>2720.8750299999997</v>
       </c>
       <c r="C9" s="12">
-        <v>356.38292999999999</v>
+        <v>1821.3485900000001</v>
       </c>
       <c r="D9" s="12">
         <v>801.43893000000003</v>
       </c>
       <c r="E9" s="12">
-        <v>1821.3485900000001</v>
+        <v>356.38292999999999</v>
       </c>
       <c r="F9" s="15">
         <v>9.7000000000000003E-2</v>
@@ -6223,13 +5492,13 @@
         <v>2478.2602900000002</v>
       </c>
       <c r="C10" s="12">
-        <v>355.06572999999997</v>
+        <v>1930.6428899999999</v>
       </c>
       <c r="D10" s="12">
         <v>820.71794999999997</v>
       </c>
       <c r="E10" s="12">
-        <v>1930.6428899999999</v>
+        <v>355.06572999999997</v>
       </c>
       <c r="F10" s="15">
         <v>9.0999999999999998E-2</v>
@@ -6243,13 +5512,13 @@
         <v>2582.84755</v>
       </c>
       <c r="C11" s="12">
-        <v>341.48608000000002</v>
+        <v>2354.0903600000001</v>
       </c>
       <c r="D11" s="12">
         <v>956.39319999999998</v>
       </c>
       <c r="E11" s="12">
-        <v>2354.0903600000001</v>
+        <v>341.48608000000002</v>
       </c>
       <c r="F11" s="16">
         <v>9.8000000000000004E-2</v>
@@ -6269,7 +5538,7 @@
   <dimension ref="A1:L26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6312,7 +5581,7 @@
         <v>2023</v>
       </c>
       <c r="K1" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="L1" s="18" t="s">
         <v>41</v>

--- a/databases/oportunidades/Oportunidad - Transición regulada a energías renovables.xlsx
+++ b/databases/oportunidades/Oportunidad - Transición regulada a energías renovables.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\msuarez\OneDrive\CEPLAN\CeplanPythonCode\excel_automation\databases\oportunidades\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a2f7fe4d737f2b4a/CEPLAN/CeplanPythonCode/excel_automation/databases/oportunidades/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="8_{839D3546-DCAF-4543-BC92-BBCE69B51874}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{3D6DC3BE-912A-4DBF-87C5-16962B81A5A3}"/>
+  <xr:revisionPtr revIDLastSave="53" documentId="8_{839D3546-DCAF-4543-BC92-BBCE69B51874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7EB4B06C-D6BE-401F-9465-8E7306DBF372}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{D880168E-D94C-44F4-8263-DF109DC04F29}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="1" xr2:uid="{D880168E-D94C-44F4-8263-DF109DC04F29}"/>
   </bookViews>
   <sheets>
     <sheet name="Index" sheetId="10" r:id="rId1"/>
-    <sheet name="Fig1" sheetId="17" r:id="rId2"/>
-    <sheet name="Fig2" sheetId="19" r:id="rId3"/>
-    <sheet name="Fig3" sheetId="20" r:id="rId4"/>
-    <sheet name="Tab1" sheetId="21" r:id="rId5"/>
-    <sheet name="Tab2" sheetId="5" r:id="rId6"/>
+    <sheet name="Fig1" sheetId="19" r:id="rId2"/>
+    <sheet name="Tab1" sheetId="21" r:id="rId3"/>
+    <sheet name="Fig2" sheetId="20" r:id="rId4"/>
+    <sheet name="Tab2" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId6"/>
     <externalReference r:id="rId7"/>
-    <externalReference r:id="rId8"/>
   </externalReferences>
   <definedNames>
     <definedName name="\a">'[1]R. Natural'!#REF!</definedName>
@@ -47,12 +46,23 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="88">
   <si>
     <t>Descripción</t>
   </si>
@@ -141,9 +151,6 @@
     <t>https://cdn.www.gob.pe/uploads/document/file/7549011/6411602-capitulo-2-estadistica-por-regiones-2023.pdf?v=1738084745</t>
   </si>
   <si>
-    <t>Figura 3</t>
-  </si>
-  <si>
     <t>Año</t>
   </si>
   <si>
@@ -153,9 +160,6 @@
     <t>Hidráulica</t>
   </si>
   <si>
-    <t>Eólica y solar</t>
-  </si>
-  <si>
     <t>Solar</t>
   </si>
   <si>
@@ -237,9 +241,6 @@
     <t>Reducción de Emisiones de CO2</t>
   </si>
   <si>
-    <t>Las energías renovables no emiten dióxido de carbono durante su operación, lo que ayuda significativamente a mitigar el cambio climático.</t>
-  </si>
-  <si>
     <t>Sostenibilidad Energética</t>
   </si>
   <si>
@@ -273,9 +274,6 @@
     <t>Acceso a Energía en Áreas Rurales</t>
   </si>
   <si>
-    <t>Las soluciones renovables, como los mini-grids solares, permiten el acceso a electricidad en comunidades rurales, fomentando su desarrollo social y económico.</t>
-  </si>
-  <si>
     <t>Innovación y Tecnología</t>
   </si>
   <si>
@@ -295,9 +293,6 @@
   </si>
   <si>
     <t>Perú: evolución de la producción de energía eléctrica con Recursos Energéticos Renovables (RER) por tipo, 2014-2023.</t>
-  </si>
-  <si>
-    <t>Perú: evolución de la producción de energía eléctrica, 2010-2023.</t>
   </si>
   <si>
     <t>Desde 2020 el Total General está en MWh, convertir a GWh</t>
@@ -311,10 +306,6 @@
     <t>Anexo 8: Centrales RER de cada Anuario Estadístico</t>
   </si>
   <si>
-    <t>"Capítulo 10: evoluciones en el sector subeléctrico" de cada Anuario Estadístico
-Apartado de "Evolución de la producción de energía eléctrica"</t>
-  </si>
-  <si>
     <t>Líneas</t>
   </si>
   <si>
@@ -331,6 +322,12 @@
   </si>
   <si>
     <t>$Departamento: evolución de la producción de energía renovable, 2015-2023</t>
+  </si>
+  <si>
+    <t>La mayoría de energías renovables (solar, eólica, hidroeléctrica) no emiten CO2 durante su operación, mientras que otras, como la biomasa moderna, libera CO2 que es neutral si se gestiona sosteniblemente, contribuyendo así a mitigar el cambio climático</t>
+  </si>
+  <si>
+    <t>Las soluciones renovables, como los mini-grids solares o la biomasa moderna, permiten el acceso a electricidad en comunidades rurales, fomentando su desarrollo social y económico.</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1152,7 @@
     <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1173,9 +1170,6 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="35" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1185,14 +1179,9 @@
     <xf numFmtId="0" fontId="22" fillId="34" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="166" fontId="22" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1367,607 +1356,6 @@
       <c:style val="2"/>
     </mc:Fallback>
   </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:endParaRPr lang="es-ES"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.12378136200716845"/>
-          <c:y val="5.5012297097884896E-2"/>
-          <c:w val="0.84470376344086018"/>
-          <c:h val="0.77498770290211527"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fig1'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Térmica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225">
-              <a:solidFill>
-                <a:srgbClr val="BE0000"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="BE0000"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="BE0000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Fig1'!$A$7:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fig1'!$B$2:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>3745.8</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3940.97</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6740.45</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7774.26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>13402.26</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15854.65</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18919.18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22882.32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>26223.45</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>21907.86</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>19641.099999999999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>27215.91</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29667.71</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-703B-4CB3-8DA1-6C9363F6E931}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fig1'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Hidráulica</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225">
-              <a:solidFill>
-                <a:srgbClr val="00194B"/>
-              </a:solidFill>
-              <a:prstDash val="sysDash"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00194B"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="00194B"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Fig1'!$A$7:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fig1'!$C$2:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>16176.05</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>18040.13</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>17525.34</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19594.349999999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>19059.62</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>20052.13</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>22044.04</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>22210.66</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24171.69</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>30737.46</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30510.3</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>29743.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>29087.64</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="1"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-703B-4CB3-8DA1-6C9363F6E931}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Fig1'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Eólica y solar</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="22225">
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:prstDash val="sysDot"/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="6"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="00B050"/>
-              </a:solidFill>
-              <a:ln cmpd="sng">
-                <a:solidFill>
-                  <a:srgbClr val="00B050"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>'Fig1'!$A$7:$A$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>2000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2006</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2008</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2010</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2012</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2014</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2016</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2022</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2023</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Fig1'!$D$2:$D$30</c:f>
-              <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="13"/>
-                <c:pt idx="0">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>56.809999999999995</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>456.84000000000003</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1304.8399999999999</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2247.84</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>2592.31</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2752.8599999999997</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3312.01</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-703B-4CB3-8DA1-6C9363F6E931}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="50010001"/>
-        <c:axId val="50010002"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="50010001"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:minorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="F0F0F0"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:minorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:endParaRPr lang="es-ES"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="0" sourceLinked="0"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="out"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900"/>
-            </a:pPr>
-            <a:endParaRPr lang="es-PE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="50010002"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="0"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="50010002"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln>
-              <a:solidFill>
-                <a:srgbClr val="EBEBEB"/>
-              </a:solidFill>
-            </a:ln>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="es-PE"/>
-                  <a:t>Gigawatts (GWh)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="#,##0" sourceLinked="0"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="50010001"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.23696479319395417"/>
-          <c:y val="0.92298479128465105"/>
-          <c:w val="0.52083781362007164"/>
-          <c:h val="7.5308411214953269E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
   <c:clrMapOvr bg1="lt1" tx1="dk1" bg2="lt2" tx2="dk2" accent1="accent1" accent2="accent2" accent3="accent3" accent4="accent4" accent5="accent5" accent6="accent6" hlink="hlink" folHlink="folHlink"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
@@ -1992,7 +1380,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fig2'!$B$1</c:f>
+              <c:f>'Fig1'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2070,7 +1458,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Fig2'!$A$2:$A$11</c:f>
+              <c:f>'Fig1'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2109,7 +1497,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fig2'!$B$2:$B$11</c:f>
+              <c:f>'Fig1'!$B$2:$B$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2157,7 +1545,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fig2'!$E$1</c:f>
+              <c:f>'Fig1'!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2238,7 +1626,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Fig2'!$A$2:$A$11</c:f>
+              <c:f>'Fig1'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2277,7 +1665,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fig2'!$E$2:$E$11</c:f>
+              <c:f>'Fig1'!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2325,7 +1713,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fig2'!$D$1</c:f>
+              <c:f>'Fig1'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2403,7 +1791,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Fig2'!$A$2:$A$11</c:f>
+              <c:f>'Fig1'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2442,7 +1830,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fig2'!$D$2:$D$11</c:f>
+              <c:f>'Fig1'!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2490,7 +1878,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fig2'!$C$1</c:f>
+              <c:f>'Fig1'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2573,7 +1961,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Fig2'!$A$2:$A$11</c:f>
+              <c:f>'Fig1'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2612,7 +2000,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fig2'!$C$2:$C$11</c:f>
+              <c:f>'Fig1'!$C$2:$C$11</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2676,7 +2064,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Fig2'!$F$1</c:f>
+              <c:f>'Fig1'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2757,7 +2145,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>'Fig2'!$A$2:$A$11</c:f>
+              <c:f>'Fig1'!$A$2:$A$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2796,7 +2184,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Fig2'!$F$2:$F$11</c:f>
+              <c:f>'Fig1'!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -3694,49 +3082,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>588900</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>146325</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D40567-319B-4B2B-AD43-99E6B205F8F2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3820,7 +3165,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja1"/>
@@ -3837,7 +3182,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Hoja3"/>
@@ -3862,9 +3207,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -3902,7 +3247,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -4008,7 +3353,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -4150,7 +3495,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4444,10 +3789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3D02EE3-0100-4A5F-8302-8309F532D55A}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4455,7 +3800,7 @@
     <col min="2" max="2" width="40.85546875" style="1" customWidth="1"/>
     <col min="3" max="3" width="19.28515625" style="1" customWidth="1"/>
     <col min="4" max="4" width="55" style="1" customWidth="1"/>
-    <col min="5" max="5" width="50" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53" style="1" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="8" max="8" width="25.7109375" customWidth="1"/>
   </cols>
@@ -4486,12 +3831,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>23</v>
@@ -4500,96 +3845,81 @@
         <v>27</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="F2" s="3"/>
       <c r="G2" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="7" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>7</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="45" t="s">
+      <c r="D4" s="3" t="s">
         <v>28</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="1:8" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
       <c r="G5" s="3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>0</v>
-      </c>
+      <c r="A6" s="5"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
-      <c r="G6" s="3" t="s">
-        <v>14</v>
-      </c>
     </row>
     <row r="7" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
@@ -4598,702 +3928,29 @@
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D5" r:id="rId1" xr:uid="{A0AEFDF5-C6A2-46DA-9B46-C724EF1CE0D2}"/>
-    <hyperlink ref="D4" r:id="rId2" xr:uid="{66FDA69C-28F0-45DE-9FCB-D611EE763311}"/>
+    <hyperlink ref="D3" r:id="rId1" xr:uid="{490063F3-F3BA-467B-837F-FF05FFB292A1}"/>
+    <hyperlink ref="D4" r:id="rId2" xr:uid="{C69B0B28-7D6A-4082-A707-33932B5917A8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38FDC975-73D7-4F6F-B0B1-6E749BE78E42}">
-  <dimension ref="A1:G36"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
-    <col min="2" max="6" width="8.7109375" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
-        <v>1995</v>
-      </c>
-      <c r="B2" s="11">
-        <v>3942.56</v>
-      </c>
-      <c r="C2" s="11">
-        <v>12937.55</v>
-      </c>
-      <c r="D2" s="11">
-        <f>+E2+F2</f>
-        <v>0</v>
-      </c>
-      <c r="E2" s="11">
-        <v>0</v>
-      </c>
-      <c r="F2" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
-        <v>1996</v>
-      </c>
-      <c r="B3" s="11">
-        <v>3955.83</v>
-      </c>
-      <c r="C3" s="11">
-        <v>13323.57</v>
-      </c>
-      <c r="D3" s="11">
-        <f t="shared" ref="D3:D30" si="0">+E3+F3</f>
-        <v>0.41</v>
-      </c>
-      <c r="E3" s="11">
-        <v>0.41</v>
-      </c>
-      <c r="F3" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
-        <v>1997</v>
-      </c>
-      <c r="B4" s="11">
-        <v>4738.32</v>
-      </c>
-      <c r="C4" s="11">
-        <v>13214.53</v>
-      </c>
-      <c r="D4" s="11">
-        <f t="shared" si="0"/>
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="E4" s="11">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="F4" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
-        <v>1998</v>
-      </c>
-      <c r="B5" s="11">
-        <v>4773.7299999999996</v>
-      </c>
-      <c r="C5" s="11">
-        <v>13808.29</v>
-      </c>
-      <c r="D5" s="11">
-        <f t="shared" si="0"/>
-        <v>0.53</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0.53</v>
-      </c>
-      <c r="F5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
-        <v>1999</v>
-      </c>
-      <c r="B6" s="11">
-        <v>4508.41</v>
-      </c>
-      <c r="C6" s="11">
-        <v>14540.58</v>
-      </c>
-      <c r="D6" s="11">
-        <f t="shared" si="0"/>
-        <v>0.62</v>
-      </c>
-      <c r="E6" s="11">
-        <v>0.62</v>
-      </c>
-      <c r="F6" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
-        <v>2000</v>
-      </c>
-      <c r="B7" s="12">
-        <v>3745.8</v>
-      </c>
-      <c r="C7" s="12">
-        <v>16176.05</v>
-      </c>
-      <c r="D7" s="12">
-        <f t="shared" si="0"/>
-        <v>0.85</v>
-      </c>
-      <c r="E7" s="12">
-        <v>0.85</v>
-      </c>
-      <c r="F7" s="12">
-        <v>0</v>
-      </c>
-      <c r="G7" s="13"/>
-    </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
-        <v>2001</v>
-      </c>
-      <c r="B8" s="12">
-        <v>3169.75</v>
-      </c>
-      <c r="C8" s="12">
-        <v>17614.96</v>
-      </c>
-      <c r="D8" s="12">
-        <f t="shared" si="0"/>
-        <v>1.23</v>
-      </c>
-      <c r="E8" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="F8" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
-        <v>2002</v>
-      </c>
-      <c r="B9" s="12">
-        <v>3940.97</v>
-      </c>
-      <c r="C9" s="12">
-        <v>18040.13</v>
-      </c>
-      <c r="D9" s="12">
-        <f t="shared" si="0"/>
-        <v>1.23</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="F9" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
-        <v>2003</v>
-      </c>
-      <c r="B10" s="12">
-        <v>4388.41</v>
-      </c>
-      <c r="C10" s="12">
-        <v>18533.72</v>
-      </c>
-      <c r="D10" s="12">
-        <f t="shared" si="0"/>
-        <v>1.23</v>
-      </c>
-      <c r="E10" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
-        <v>2004</v>
-      </c>
-      <c r="B11" s="12">
-        <v>6740.45</v>
-      </c>
-      <c r="C11" s="12">
-        <v>17525.34</v>
-      </c>
-      <c r="D11" s="12">
-        <f t="shared" si="0"/>
-        <v>1.23</v>
-      </c>
-      <c r="E11" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="10">
-        <v>2005</v>
-      </c>
-      <c r="B12" s="12">
-        <v>7531.52</v>
-      </c>
-      <c r="C12" s="12">
-        <v>17976.990000000002</v>
-      </c>
-      <c r="D12" s="12">
-        <f t="shared" si="0"/>
-        <v>1.23</v>
-      </c>
-      <c r="E12" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="F12" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="10">
-        <v>2006</v>
-      </c>
-      <c r="B13" s="12">
-        <v>7774.26</v>
-      </c>
-      <c r="C13" s="12">
-        <v>19594.349999999999</v>
-      </c>
-      <c r="D13" s="12">
-        <f t="shared" si="0"/>
-        <v>1.23</v>
-      </c>
-      <c r="E13" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="F13" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="10">
-        <v>2007</v>
-      </c>
-      <c r="B14" s="12">
-        <v>10393.040000000001</v>
-      </c>
-      <c r="C14" s="12">
-        <v>19548.78</v>
-      </c>
-      <c r="D14" s="12">
-        <f t="shared" si="0"/>
-        <v>1.23</v>
-      </c>
-      <c r="E14" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="F14" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
-        <v>2008</v>
-      </c>
-      <c r="B15" s="12">
-        <v>13402.26</v>
-      </c>
-      <c r="C15" s="12">
-        <v>19059.62</v>
-      </c>
-      <c r="D15" s="12">
-        <f t="shared" si="0"/>
-        <v>1.23</v>
-      </c>
-      <c r="E15" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
-        <v>2009</v>
-      </c>
-      <c r="B16" s="12">
-        <v>13039.73</v>
-      </c>
-      <c r="C16" s="12">
-        <v>19903.78</v>
-      </c>
-      <c r="D16" s="12">
-        <f t="shared" si="0"/>
-        <v>1.23</v>
-      </c>
-      <c r="E16" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="F16" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="10">
-        <v>2010</v>
-      </c>
-      <c r="B17" s="12">
-        <v>15854.65</v>
-      </c>
-      <c r="C17" s="12">
-        <v>20052.13</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="0"/>
-        <v>1.23</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="F17" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10">
-        <v>2011</v>
-      </c>
-      <c r="B18" s="12">
-        <v>17247.91</v>
-      </c>
-      <c r="C18" s="12">
-        <v>21557.33</v>
-      </c>
-      <c r="D18" s="12">
-        <f t="shared" si="0"/>
-        <v>1.23</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1.23</v>
-      </c>
-      <c r="F18" s="12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="10">
-        <v>2012</v>
-      </c>
-      <c r="B19" s="12">
-        <v>18919.18</v>
-      </c>
-      <c r="C19" s="12">
-        <v>22044.04</v>
-      </c>
-      <c r="D19" s="12">
-        <f t="shared" si="0"/>
-        <v>56.809999999999995</v>
-      </c>
-      <c r="E19" s="12">
-        <v>55.58</v>
-      </c>
-      <c r="F19" s="12">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10">
-        <v>2013</v>
-      </c>
-      <c r="B20" s="12">
-        <v>20812.46</v>
-      </c>
-      <c r="C20" s="12">
-        <v>22319.56</v>
-      </c>
-      <c r="D20" s="12">
-        <f t="shared" si="0"/>
-        <v>198.16</v>
-      </c>
-      <c r="E20" s="12">
-        <v>196.93</v>
-      </c>
-      <c r="F20" s="12">
-        <v>1.23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="10">
-        <v>2014</v>
-      </c>
-      <c r="B21" s="12">
-        <v>22882.32</v>
-      </c>
-      <c r="C21" s="12">
-        <v>22210.66</v>
-      </c>
-      <c r="D21" s="12">
-        <f t="shared" si="0"/>
-        <v>456.84000000000003</v>
-      </c>
-      <c r="E21" s="12">
-        <v>199.3</v>
-      </c>
-      <c r="F21" s="12">
-        <v>257.54000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="10">
-        <v>2015</v>
-      </c>
-      <c r="B22" s="12">
-        <v>23721.8</v>
-      </c>
-      <c r="C22" s="12">
-        <v>23722.75</v>
-      </c>
-      <c r="D22" s="12">
-        <f t="shared" si="0"/>
-        <v>825.86</v>
-      </c>
-      <c r="E22" s="12">
-        <v>230.26</v>
-      </c>
-      <c r="F22" s="12">
-        <v>595.6</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="10">
-        <v>2016</v>
-      </c>
-      <c r="B23" s="12">
-        <v>26223.45</v>
-      </c>
-      <c r="C23" s="12">
-        <v>24171.69</v>
-      </c>
-      <c r="D23" s="12">
-        <f t="shared" si="0"/>
-        <v>1304.8399999999999</v>
-      </c>
-      <c r="E23" s="12">
-        <v>241.01</v>
-      </c>
-      <c r="F23" s="12">
-        <v>1063.83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10">
-        <v>2017</v>
-      </c>
-      <c r="B24" s="12">
-        <v>22264.91</v>
-      </c>
-      <c r="C24" s="12">
-        <v>29074.51</v>
-      </c>
-      <c r="D24" s="12">
-        <f t="shared" si="0"/>
-        <v>1360.63</v>
-      </c>
-      <c r="E24" s="12">
-        <v>287.2</v>
-      </c>
-      <c r="F24" s="12">
-        <v>1073.43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="10">
-        <v>2018</v>
-      </c>
-      <c r="B25" s="12">
-        <v>21907.86</v>
-      </c>
-      <c r="C25" s="12">
-        <v>30737.46</v>
-      </c>
-      <c r="D25" s="12">
-        <f t="shared" si="0"/>
-        <v>2247.84</v>
-      </c>
-      <c r="E25" s="12">
-        <v>745.4</v>
-      </c>
-      <c r="F25" s="12">
-        <v>1502.44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="10">
-        <v>2019</v>
-      </c>
-      <c r="B26" s="12">
-        <v>23088.32</v>
-      </c>
-      <c r="C26" s="12">
-        <v>31462.09</v>
-      </c>
-      <c r="D26" s="12">
-        <f t="shared" si="0"/>
-        <v>2418.1</v>
-      </c>
-      <c r="E26" s="12">
-        <v>763.06</v>
-      </c>
-      <c r="F26" s="12">
-        <v>1655.04</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <v>2020</v>
-      </c>
-      <c r="B27" s="12">
-        <v>19641.099999999999</v>
-      </c>
-      <c r="C27" s="12">
-        <v>30510.3</v>
-      </c>
-      <c r="D27" s="12">
-        <f t="shared" si="0"/>
-        <v>2592.31</v>
-      </c>
-      <c r="E27" s="12">
-        <v>778.21</v>
-      </c>
-      <c r="F27" s="12">
-        <v>1814.1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <v>2021</v>
-      </c>
-      <c r="B28" s="12">
-        <v>22847.06</v>
-      </c>
-      <c r="C28" s="12">
-        <v>31925.68</v>
-      </c>
-      <c r="D28" s="12">
-        <f t="shared" si="0"/>
-        <v>2624.27</v>
-      </c>
-      <c r="E28" s="12">
-        <v>801.7</v>
-      </c>
-      <c r="F28" s="12">
-        <v>1822.57</v>
-      </c>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="10">
-        <v>2022</v>
-      </c>
-      <c r="B29" s="12">
-        <v>27215.91</v>
-      </c>
-      <c r="C29" s="12">
-        <v>29743.8</v>
-      </c>
-      <c r="D29" s="12">
-        <f t="shared" si="0"/>
-        <v>2752.8599999999997</v>
-      </c>
-      <c r="E29" s="12">
-        <v>820.99</v>
-      </c>
-      <c r="F29" s="12">
-        <v>1931.87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="10">
-        <v>2023</v>
-      </c>
-      <c r="B30" s="12">
-        <v>29667.71</v>
-      </c>
-      <c r="C30" s="12">
-        <v>29087.64</v>
-      </c>
-      <c r="D30" s="12">
-        <f t="shared" si="0"/>
-        <v>3312.01</v>
-      </c>
-      <c r="E30" s="12">
-        <v>956.69</v>
-      </c>
-      <c r="F30" s="12">
-        <v>2355.3200000000002</v>
-      </c>
-      <c r="G30" s="13"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B31" s="13"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B34" s="13"/>
-      <c r="C34" s="13"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B35" s="13"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B36" s="13"/>
-      <c r="C36" s="14"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04BEC4B1-BA9F-4D0F-8EC5-BC4878771749}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5305,231 +3962,845 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="8" t="s">
+      <c r="A1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>36</v>
-      </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="10">
+      <c r="A2" s="9">
         <v>2014</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="10">
         <v>906.78</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="10">
         <v>256.31</v>
       </c>
-      <c r="D2" s="12">
+      <c r="D2" s="10">
         <v>199.3</v>
       </c>
-      <c r="E2" s="12">
+      <c r="E2" s="10">
         <v>229.17</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="11">
         <v>3.7999999999999999E-2</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="10">
+      <c r="A3" s="9">
         <v>2015</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="10">
         <v>1138.32</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="10">
         <v>594.37</v>
       </c>
-      <c r="D3" s="12">
+      <c r="D3" s="10">
         <v>230.26</v>
       </c>
-      <c r="E3" s="12">
+      <c r="E3" s="10">
         <v>199.39</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="11">
         <v>4.8000000000000001E-2</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="10">
+      <c r="A4" s="9">
         <v>2016</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="10">
         <v>1077.1600000000001</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="10">
         <v>1062.6026850000001</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="10">
         <v>241.00855899999999</v>
       </c>
-      <c r="E4" s="12">
+      <c r="E4" s="10">
         <v>203.56655000000001</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="11">
         <v>5.2999999999999999E-2</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="10">
+      <c r="A5" s="9">
         <v>2017</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="10">
         <v>1232.52</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="10">
         <v>1072.205868</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="10">
         <v>287.2</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="10">
         <v>185.92</v>
       </c>
-      <c r="F5" s="15">
+      <c r="F5" s="11">
         <v>5.5E-2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+      <c r="A6" s="9">
         <v>2018</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="10">
         <v>1496.3</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="10">
         <v>1501.2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="10">
         <v>745.4</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="10">
         <v>211</v>
       </c>
-      <c r="F6" s="15">
+      <c r="F6" s="11">
         <v>7.5542961274303905E-2</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="10">
+      <c r="A7" s="9">
         <v>2019</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="10">
         <v>2089</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="10">
         <v>1653.8</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="10">
         <v>763</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="10">
         <v>311.39999999999998</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="11">
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="10">
+      <c r="A8" s="9">
         <v>2020</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="10">
         <v>2432.6829400000001</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="10">
         <v>1812.8757000000001</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="10">
         <v>778.12811999999997</v>
       </c>
-      <c r="E8" s="12">
+      <c r="E8" s="10">
         <v>304.60296</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="11">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="10">
+      <c r="A9" s="9">
         <v>2021</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="10">
         <v>2720.8750299999997</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="10">
         <v>1821.3485900000001</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="10">
         <v>801.43893000000003</v>
       </c>
-      <c r="E9" s="12">
+      <c r="E9" s="10">
         <v>356.38292999999999</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="11">
         <v>9.7000000000000003E-2</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="10">
+      <c r="A10" s="9">
         <v>2022</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="10">
         <v>2478.2602900000002</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="10">
         <v>1930.6428899999999</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="10">
         <v>820.71794999999997</v>
       </c>
-      <c r="E10" s="12">
+      <c r="E10" s="10">
         <v>355.06572999999997</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="11">
         <v>9.0999999999999998E-2</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="10">
+      <c r="A11" s="9">
         <v>2023</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="10">
         <v>2582.84755</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="10">
         <v>2354.0903600000001</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="10">
         <v>956.39319999999998</v>
       </c>
-      <c r="E11" s="12">
+      <c r="E11" s="10">
         <v>341.48608000000002</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="12">
         <v>9.8000000000000004E-2</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="17"/>
+      <c r="F12" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B921D5-6B0F-4BBD-9441-DEA2F0115BC8}">
+  <dimension ref="A1:H23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="26">
+        <v>57064077</v>
+      </c>
+      <c r="C2" s="26">
+        <v>28797700</v>
+      </c>
+      <c r="D2" s="26">
+        <v>25160779</v>
+      </c>
+      <c r="E2" s="26">
+        <v>1930115</v>
+      </c>
+      <c r="F2" s="26">
+        <v>821466</v>
+      </c>
+      <c r="G2" s="26">
+        <v>354017</v>
+      </c>
+      <c r="H2" s="27">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="29">
+        <v>29064860</v>
+      </c>
+      <c r="C3" s="29">
+        <v>5875203</v>
+      </c>
+      <c r="D3" s="29">
+        <v>23009173</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="29">
+        <v>2776</v>
+      </c>
+      <c r="G3" s="29">
+        <v>177708</v>
+      </c>
+      <c r="H3" s="31">
+        <v>50.9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="33">
+        <v>9561022</v>
+      </c>
+      <c r="C4" s="33">
+        <v>9561022</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" s="34">
+        <v>16.8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="33">
+        <v>2771863</v>
+      </c>
+      <c r="C5" s="33">
+        <v>2771844</v>
+      </c>
+      <c r="D5" s="34">
+        <v>20</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" s="34">
+        <v>4.9000000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="33">
+        <v>2205695</v>
+      </c>
+      <c r="C6" s="33">
+        <v>2049610</v>
+      </c>
+      <c r="D6" s="33">
+        <v>109405</v>
+      </c>
+      <c r="E6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="33">
+        <v>46681</v>
+      </c>
+      <c r="H6" s="34">
+        <v>3.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="33">
+        <v>1827180</v>
+      </c>
+      <c r="C7" s="33">
+        <v>1827180</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="33">
+        <v>1843454</v>
+      </c>
+      <c r="C8" s="33">
+        <v>1843454</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" s="34">
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="33">
+        <v>1606616</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D9" s="33">
+        <v>274293</v>
+      </c>
+      <c r="E9" s="33">
+        <v>1332323</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="34">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="33">
+        <v>1552468</v>
+      </c>
+      <c r="C10" s="33">
+        <v>1026679</v>
+      </c>
+      <c r="D10" s="34">
+        <v>16</v>
+      </c>
+      <c r="E10" s="33">
+        <v>458546</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="33">
+        <v>67227</v>
+      </c>
+      <c r="H10" s="34">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="33">
+        <v>1430754</v>
+      </c>
+      <c r="C11" s="33">
+        <v>200075</v>
+      </c>
+      <c r="D11" s="33">
+        <v>1029031</v>
+      </c>
+      <c r="E11" s="33">
+        <v>139246</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="33">
+        <v>62402</v>
+      </c>
+      <c r="H11" s="34">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="33">
+        <v>1130724</v>
+      </c>
+      <c r="C12" s="33">
+        <v>980832</v>
+      </c>
+      <c r="D12" s="33">
+        <v>59982</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="33">
+        <v>89910</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="33">
+        <v>1039262</v>
+      </c>
+      <c r="C13" s="33">
+        <v>1039069</v>
+      </c>
+      <c r="D13" s="34">
+        <v>193</v>
+      </c>
+      <c r="E13" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="34">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="33">
+        <v>977065</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="33">
+        <v>304582</v>
+      </c>
+      <c r="E14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F14" s="33">
+        <v>672483</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="34">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="33">
+        <v>789069</v>
+      </c>
+      <c r="C15" s="33">
+        <v>788901</v>
+      </c>
+      <c r="D15" s="34">
+        <v>168</v>
+      </c>
+      <c r="E15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="34">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="33">
+        <v>544255</v>
+      </c>
+      <c r="C16" s="33">
+        <v>230635</v>
+      </c>
+      <c r="D16" s="33">
+        <v>313543</v>
+      </c>
+      <c r="E16" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G16" s="34">
+        <v>78</v>
+      </c>
+      <c r="H16" s="34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="33">
+        <v>423632</v>
+      </c>
+      <c r="C17" s="33">
+        <v>372825</v>
+      </c>
+      <c r="D17" s="33">
+        <v>50807</v>
+      </c>
+      <c r="E17" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H17" s="34">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="33">
+        <v>146910</v>
+      </c>
+      <c r="C18" s="33">
+        <v>90883</v>
+      </c>
+      <c r="D18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="33">
+        <v>56027</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H18" s="34">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19" s="33">
+        <v>46577</v>
+      </c>
+      <c r="C19" s="33">
+        <v>45531</v>
+      </c>
+      <c r="D19" s="33">
+        <v>1047</v>
+      </c>
+      <c r="E19" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H19" s="34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="33">
+        <v>42628</v>
+      </c>
+      <c r="C20" s="33">
+        <v>42628</v>
+      </c>
+      <c r="D20" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H20" s="34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="33">
+        <v>33303</v>
+      </c>
+      <c r="C21" s="33">
+        <v>32941</v>
+      </c>
+      <c r="D21" s="34">
+        <v>361</v>
+      </c>
+      <c r="E21" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F21" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H21" s="34">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" s="33">
+        <v>16945</v>
+      </c>
+      <c r="C22" s="33">
+        <v>16942</v>
+      </c>
+      <c r="D22" s="34">
+        <v>3</v>
+      </c>
+      <c r="E22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="33">
+        <v>9796</v>
+      </c>
+      <c r="C23" s="33">
+        <v>1445</v>
+      </c>
+      <c r="D23" s="33">
+        <v>8351</v>
+      </c>
+      <c r="E23" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" s="34">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5537,8 +4808,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A4788FF-1152-42F4-971F-8F5E4C9F3174}">
   <dimension ref="A1:L26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5550,822 +4821,822 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" s="14">
+        <v>2015</v>
+      </c>
+      <c r="C1" s="14">
+        <v>2016</v>
+      </c>
+      <c r="D1" s="14">
+        <v>2017</v>
+      </c>
+      <c r="E1" s="14">
+        <v>2018</v>
+      </c>
+      <c r="F1" s="14">
+        <v>2019</v>
+      </c>
+      <c r="G1" s="14">
+        <v>2020</v>
+      </c>
+      <c r="H1" s="14">
+        <v>2021</v>
+      </c>
+      <c r="I1" s="14">
+        <v>2022</v>
+      </c>
+      <c r="J1" s="14">
+        <v>2023</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="18">
-        <v>2015</v>
-      </c>
-      <c r="C1" s="18">
-        <v>2016</v>
-      </c>
-      <c r="D1" s="18">
-        <v>2017</v>
-      </c>
-      <c r="E1" s="18">
-        <v>2018</v>
-      </c>
-      <c r="F1" s="18">
-        <v>2019</v>
-      </c>
-      <c r="G1" s="18">
-        <v>2020</v>
-      </c>
-      <c r="H1" s="18">
-        <v>2021</v>
-      </c>
-      <c r="I1" s="18">
-        <v>2022</v>
-      </c>
-      <c r="J1" s="18">
-        <v>2023</v>
-      </c>
-      <c r="K1" s="18" t="s">
-        <v>90</v>
-      </c>
-      <c r="L1" s="18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="20">
+      <c r="B2" s="16">
         <v>57.279000000000003</v>
       </c>
-      <c r="C2" s="20">
+      <c r="C2" s="16">
         <v>153.215</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="16">
         <v>66.917000000000002</v>
       </c>
-      <c r="E2" s="20">
+      <c r="E2" s="16">
         <v>61.255000000000003</v>
       </c>
-      <c r="F2" s="20">
+      <c r="F2" s="16">
         <v>48.887999999999998</v>
       </c>
-      <c r="G2" s="20">
+      <c r="G2" s="16">
         <v>35.298999999999999</v>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="16">
         <v>54.673000000000002</v>
       </c>
-      <c r="I2" s="20">
+      <c r="I2" s="16">
         <v>45.53</v>
       </c>
-      <c r="J2" s="20">
+      <c r="J2" s="16">
         <v>42.08</v>
       </c>
-      <c r="K2" s="21">
+      <c r="K2" s="17">
         <f>+(J2-I2)/I2</f>
         <v>-7.5774214803426373E-2</v>
       </c>
-      <c r="L2" s="22"/>
+      <c r="L2" s="18"/>
     </row>
     <row r="3" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="24">
+      <c r="B3" s="20">
         <v>1930.828</v>
       </c>
-      <c r="C3" s="24">
+      <c r="C3" s="20">
         <v>2235.86</v>
       </c>
-      <c r="D3" s="24">
+      <c r="D3" s="20">
         <v>2765.3539999999998</v>
       </c>
-      <c r="E3" s="24">
+      <c r="E3" s="20">
         <v>2253.3449999999998</v>
       </c>
-      <c r="F3" s="24">
+      <c r="F3" s="20">
         <v>2226.6860000000001</v>
       </c>
-      <c r="G3" s="24">
+      <c r="G3" s="20">
         <v>2158.3380000000002</v>
       </c>
-      <c r="H3" s="24">
+      <c r="H3" s="20">
         <v>2362.8029999999999</v>
       </c>
-      <c r="I3" s="24">
+      <c r="I3" s="20">
         <v>2096.29</v>
       </c>
-      <c r="J3" s="24">
+      <c r="J3" s="20">
         <v>1787.74</v>
       </c>
-      <c r="K3" s="21">
+      <c r="K3" s="17">
         <f t="shared" ref="K3:K22" si="0">+(J3-I3)/I3</f>
         <v>-0.14718860463008457</v>
       </c>
-      <c r="L3" s="25"/>
+      <c r="L3" s="21"/>
     </row>
     <row r="4" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="24">
+      <c r="B4" s="20">
         <v>41.18</v>
       </c>
-      <c r="C4" s="24">
+      <c r="C4" s="20">
         <v>39.673000000000002</v>
       </c>
-      <c r="D4" s="24">
+      <c r="D4" s="20">
         <v>6974.0069999999996</v>
       </c>
-      <c r="E4" s="24">
+      <c r="E4" s="20">
         <v>45.094000000000001</v>
       </c>
-      <c r="F4" s="24">
+      <c r="F4" s="20">
         <v>43.439</v>
       </c>
-      <c r="G4" s="24">
+      <c r="G4" s="20">
         <v>43.496000000000002</v>
       </c>
-      <c r="H4" s="24">
+      <c r="H4" s="20">
         <v>45.148000000000003</v>
       </c>
-      <c r="I4" s="24">
+      <c r="I4" s="20">
         <v>42.628</v>
       </c>
-      <c r="J4" s="24">
+      <c r="J4" s="20">
         <v>38.770000000000003</v>
       </c>
-      <c r="K4" s="21">
+      <c r="K4" s="17">
         <f t="shared" si="0"/>
         <v>-9.0503894154077058E-2</v>
       </c>
-      <c r="L4" s="25"/>
+      <c r="L4" s="21"/>
     </row>
     <row r="5" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23" t="s">
+      <c r="A5" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="24">
+      <c r="B5" s="20">
         <v>879.23</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="20">
         <v>893.50199999999995</v>
       </c>
-      <c r="D5" s="24">
+      <c r="D5" s="20">
         <v>1058.4110000000001</v>
       </c>
-      <c r="E5" s="24">
+      <c r="E5" s="20">
         <v>1089.069</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="20">
         <v>1107.528</v>
       </c>
-      <c r="G5" s="24">
+      <c r="G5" s="20">
         <v>1167.5840000000001</v>
       </c>
-      <c r="H5" s="24">
+      <c r="H5" s="20">
         <v>1134.9259999999999</v>
       </c>
-      <c r="I5" s="24">
+      <c r="I5" s="20">
         <v>1070.742</v>
       </c>
-      <c r="J5" s="24">
+      <c r="J5" s="20">
         <v>958.54000000000008</v>
       </c>
-      <c r="K5" s="21">
+      <c r="K5" s="17">
         <f t="shared" si="0"/>
         <v>-0.10478901546777832</v>
       </c>
-      <c r="L5" s="25"/>
+      <c r="L5" s="21"/>
     </row>
     <row r="6" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="B6" s="24">
+      <c r="A6" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="20">
         <v>20.885999999999999</v>
       </c>
-      <c r="C6" s="24">
+      <c r="C6" s="20">
         <v>19.702000000000002</v>
       </c>
-      <c r="D6" s="24">
+      <c r="D6" s="20">
         <v>21.658999999999999</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="20">
         <v>17.86</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="20">
         <v>12.955</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="20">
         <v>17.059999999999999</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="20">
         <v>11.791</v>
       </c>
-      <c r="I6" s="24">
+      <c r="I6" s="20">
         <v>16.942</v>
       </c>
-      <c r="J6" s="24">
+      <c r="J6" s="20">
         <v>11.76</v>
       </c>
-      <c r="K6" s="21">
+      <c r="K6" s="17">
         <f t="shared" si="0"/>
         <v>-0.30586707590603235</v>
       </c>
-      <c r="L6" s="25"/>
+      <c r="L6" s="21"/>
     </row>
     <row r="7" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="24">
+      <c r="B7" s="20">
         <v>983.56799999999998</v>
       </c>
-      <c r="C7" s="24">
+      <c r="C7" s="20">
         <v>578.43200000000002</v>
       </c>
-      <c r="D7" s="24">
+      <c r="D7" s="20">
         <v>878.34100000000001</v>
       </c>
-      <c r="E7" s="24">
+      <c r="E7" s="20">
         <v>1219.973</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="20">
         <v>1370.308</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="20">
         <v>1374.979</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="20">
         <v>1705.1849999999999</v>
       </c>
-      <c r="I7" s="24">
+      <c r="I7" s="20">
         <v>1552.452</v>
       </c>
-      <c r="J7" s="24">
+      <c r="J7" s="20">
         <v>1340.34</v>
       </c>
-      <c r="K7" s="21">
+      <c r="K7" s="17">
         <f t="shared" si="0"/>
         <v>-0.13663031127532452</v>
       </c>
-      <c r="L7" s="25"/>
+      <c r="L7" s="21"/>
     </row>
     <row r="8" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="B8" s="24">
+      <c r="A8" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="20">
         <v>1261.943</v>
       </c>
-      <c r="C8" s="24">
+      <c r="C8" s="20">
         <v>650.14099999999996</v>
       </c>
-      <c r="D8" s="24">
+      <c r="D8" s="20">
         <v>1891.079</v>
       </c>
-      <c r="E8" s="24">
+      <c r="E8" s="20">
         <v>1987.182</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="20">
         <v>1942.5930000000001</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="20">
         <v>1795.4760000000001</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="20">
         <v>1908.329</v>
       </c>
-      <c r="I8" s="24">
+      <c r="I8" s="20">
         <v>1827.18</v>
       </c>
-      <c r="J8" s="24">
+      <c r="J8" s="20">
         <v>1855.56</v>
       </c>
-      <c r="K8" s="21">
+      <c r="K8" s="17">
         <f t="shared" si="0"/>
         <v>1.5532131481298986E-2</v>
       </c>
-      <c r="L8" s="25"/>
+      <c r="L8" s="21"/>
     </row>
     <row r="9" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="24">
+      <c r="A9" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="20">
         <v>7170.5290000000005</v>
       </c>
-      <c r="C9" s="24">
+      <c r="C9" s="20">
         <v>7356.3950000000004</v>
       </c>
-      <c r="D9" s="24">
+      <c r="D9" s="20">
         <v>2315.4450000000002</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="20">
         <v>13528.182000000001</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="20">
         <v>10257.728999999999</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="20">
         <v>10036.629000000001</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="20">
         <v>10189.179</v>
       </c>
-      <c r="I9" s="24">
+      <c r="I9" s="20">
         <v>9561.0220000000008</v>
       </c>
-      <c r="J9" s="24">
+      <c r="J9" s="20">
         <v>8959.48</v>
       </c>
-      <c r="K9" s="21">
+      <c r="K9" s="17">
         <f t="shared" si="0"/>
         <v>-6.2916077381685892E-2</v>
       </c>
-      <c r="L9" s="25"/>
+      <c r="L9" s="21"/>
     </row>
     <row r="10" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="24">
+      <c r="A10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="20">
         <v>31.023</v>
       </c>
-      <c r="C10" s="24">
+      <c r="C10" s="20">
         <v>32.146000000000001</v>
       </c>
-      <c r="D10" s="24">
+      <c r="D10" s="20">
         <v>2118.7420000000002</v>
       </c>
-      <c r="E10" s="24">
+      <c r="E10" s="20">
         <v>2467.75</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="20">
         <v>2453.527</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="20">
         <v>2141.797</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="20">
         <v>2254.6080000000002</v>
       </c>
-      <c r="I10" s="24">
+      <c r="I10" s="20">
         <v>1843.454</v>
       </c>
-      <c r="J10" s="24">
+      <c r="J10" s="20">
         <v>2120.5100000000002</v>
       </c>
-      <c r="K10" s="21">
+      <c r="K10" s="17">
         <f t="shared" si="0"/>
         <v>0.15029178921741485</v>
       </c>
-      <c r="L10" s="25"/>
+      <c r="L10" s="21"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="24">
+      <c r="B11" s="20">
         <v>144.613</v>
       </c>
-      <c r="C11" s="24">
+      <c r="C11" s="20">
         <v>463.06599999999997</v>
       </c>
-      <c r="D11" s="24">
+      <c r="D11" s="20">
         <v>667.87699999999995</v>
       </c>
-      <c r="E11" s="24">
+      <c r="E11" s="20">
         <v>611.68200000000002</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="20">
         <v>1203.1959999999999</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="20">
         <v>1296.181</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="20">
         <v>1249.7049999999999</v>
       </c>
-      <c r="I11" s="24">
+      <c r="I11" s="20">
         <v>1332.3230000000001</v>
       </c>
-      <c r="J11" s="24">
+      <c r="J11" s="20">
         <v>1806.4199999999998</v>
       </c>
-      <c r="K11" s="21">
+      <c r="K11" s="17">
         <f t="shared" si="0"/>
         <v>0.35584238957069697</v>
       </c>
-      <c r="L11" s="25"/>
+      <c r="L11" s="21"/>
     </row>
     <row r="12" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="24">
+      <c r="B12" s="20">
         <v>2604.8850000000002</v>
       </c>
-      <c r="C12" s="24">
+      <c r="C12" s="20">
         <v>2247.2469999999998</v>
       </c>
-      <c r="D12" s="24">
+      <c r="D12" s="20">
         <v>2344.5100000000002</v>
       </c>
-      <c r="E12" s="24">
+      <c r="E12" s="20">
         <v>2709.8470000000002</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="20">
         <v>2611.761</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="20">
         <v>2472.2660000000001</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="20">
         <v>2800.5819999999999</v>
       </c>
-      <c r="I12" s="24">
+      <c r="I12" s="20">
         <v>2771.8429999999998</v>
       </c>
-      <c r="J12" s="24">
+      <c r="J12" s="20">
         <v>2976.75</v>
       </c>
-      <c r="K12" s="21">
+      <c r="K12" s="17">
         <f t="shared" si="0"/>
         <v>7.3924461089607221E-2</v>
       </c>
-      <c r="L12" s="25"/>
+      <c r="L12" s="21"/>
     </row>
     <row r="13" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="23" t="s">
-        <v>47</v>
-      </c>
-      <c r="B13" s="24">
+      <c r="A13" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="20">
         <v>0</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="20">
         <v>0</v>
       </c>
-      <c r="D13" s="24">
+      <c r="D13" s="20">
         <v>0</v>
       </c>
-      <c r="E13" s="24">
+      <c r="E13" s="20">
         <v>1.496</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="20">
         <v>4.7480000000000002</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="20">
         <v>1.837</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="20">
         <v>3.0920000000000001</v>
       </c>
-      <c r="I13" s="24">
+      <c r="I13" s="20">
         <v>1.4450000000000001</v>
       </c>
-      <c r="J13" s="24">
+      <c r="J13" s="20">
         <v>1.5500000000000007</v>
       </c>
-      <c r="K13" s="21">
+      <c r="K13" s="17">
         <f t="shared" si="0"/>
         <v>7.2664359861592143E-2</v>
       </c>
-      <c r="L13" s="25"/>
+      <c r="L13" s="21"/>
     </row>
     <row r="14" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="23" t="s">
+      <c r="A14" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="24">
+      <c r="B14" s="20">
         <v>5513.94</v>
       </c>
-      <c r="C14" s="24">
+      <c r="C14" s="20">
         <v>5377.8</v>
       </c>
-      <c r="D14" s="24">
+      <c r="D14" s="20">
         <v>5980.5169999999998</v>
       </c>
-      <c r="E14" s="24">
+      <c r="E14" s="20">
         <v>5080.1279999999997</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="20">
         <v>6254.3770000000004</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="20">
         <v>6369.8069999999998</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="20">
         <v>6529.6289999999999</v>
       </c>
-      <c r="I14" s="24">
+      <c r="I14" s="20">
         <v>6055.6869999999999</v>
       </c>
-      <c r="J14" s="24">
+      <c r="J14" s="20">
         <v>6517.9000000000015</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K14" s="17">
         <f t="shared" si="0"/>
         <v>7.6327095505431763E-2</v>
       </c>
-      <c r="L14" s="25"/>
+      <c r="L14" s="21"/>
     </row>
     <row r="15" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="B15" s="24">
+      <c r="A15" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B15" s="20">
         <v>492.52699999999999</v>
       </c>
-      <c r="C15" s="24">
+      <c r="C15" s="20">
         <v>824.41600000000005</v>
       </c>
-      <c r="D15" s="24">
+      <c r="D15" s="20">
         <v>33.207000000000001</v>
       </c>
-      <c r="E15" s="24">
+      <c r="E15" s="20">
         <v>394.07400000000001</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="20">
         <v>406.67</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="20">
         <v>442.10300000000001</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="20">
         <v>440.66699999999997</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="20">
         <v>372.82499999999999</v>
       </c>
-      <c r="J15" s="24">
+      <c r="J15" s="20">
         <v>0</v>
       </c>
-      <c r="K15" s="21">
+      <c r="K15" s="17">
         <f t="shared" si="0"/>
         <v>-1</v>
       </c>
-      <c r="L15" s="25"/>
+      <c r="L15" s="21"/>
     </row>
     <row r="16" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="24">
+      <c r="B16" s="20">
         <v>96.641000000000005</v>
       </c>
-      <c r="C16" s="24">
+      <c r="C16" s="20">
         <v>5.0190000000000001</v>
       </c>
-      <c r="D16" s="24">
+      <c r="D16" s="20">
         <v>46.469000000000001</v>
       </c>
-      <c r="E16" s="24">
+      <c r="E16" s="20">
         <v>156.81899999999999</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="20">
         <v>627.54399999999998</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="20">
         <v>643.77200000000005</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="20">
         <v>659.16700000000003</v>
       </c>
-      <c r="I16" s="24">
+      <c r="I16" s="20">
         <v>304.58199999999999</v>
       </c>
-      <c r="J16" s="24">
+      <c r="J16" s="20">
         <v>812.05</v>
       </c>
-      <c r="K16" s="21">
+      <c r="K16" s="17">
         <f t="shared" si="0"/>
         <v>1.6661129022726227</v>
       </c>
-      <c r="L16" s="25"/>
+      <c r="L16" s="21"/>
     </row>
     <row r="17" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="24">
+      <c r="A17" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="20">
         <v>972.08600000000001</v>
       </c>
-      <c r="C17" s="24">
+      <c r="C17" s="20">
         <v>101.66200000000001</v>
       </c>
-      <c r="D17" s="24">
+      <c r="D17" s="20">
         <v>933.45</v>
       </c>
-      <c r="E17" s="24">
+      <c r="E17" s="20">
         <v>894.04700000000003</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="20">
         <v>894.73699999999997</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="20">
         <v>795.14800000000002</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="20">
         <v>822.78599999999994</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="20">
         <v>788.90099999999995</v>
       </c>
-      <c r="J17" s="24">
+      <c r="J17" s="20">
         <v>804.86</v>
       </c>
-      <c r="K17" s="21">
+      <c r="K17" s="17">
         <f t="shared" si="0"/>
         <v>2.022940774571215E-2</v>
       </c>
-      <c r="L17" s="25"/>
+      <c r="L17" s="21"/>
     </row>
     <row r="18" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="24">
+      <c r="A18" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="20">
         <v>650.25900000000001</v>
       </c>
-      <c r="C18" s="24">
+      <c r="C18" s="20">
         <v>1884.9870000000001</v>
       </c>
-      <c r="D18" s="24">
+      <c r="D18" s="20">
         <v>333.84399999999999</v>
       </c>
-      <c r="E18" s="24">
+      <c r="E18" s="20">
         <v>282.90100000000001</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="20">
         <v>309.88600000000002</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="20">
         <v>307.22199999999998</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="20">
         <v>466.46800000000002</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="20">
         <v>401.72300000000001</v>
       </c>
-      <c r="J18" s="24">
+      <c r="J18" s="20">
         <v>312.31000000000017</v>
       </c>
-      <c r="K18" s="21">
+      <c r="K18" s="17">
         <f t="shared" si="0"/>
         <v>-0.22257376351366448</v>
       </c>
-      <c r="L18" s="25"/>
+      <c r="L18" s="21"/>
     </row>
     <row r="19" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="B19" s="24">
+      <c r="A19" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="20">
         <v>811.27200000000005</v>
       </c>
-      <c r="C19" s="24">
+      <c r="C19" s="20">
         <v>759.12</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="20">
         <v>763.697</v>
       </c>
-      <c r="E19" s="24">
+      <c r="E19" s="20">
         <v>746.98199999999997</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="20">
         <v>998.90099999999995</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="20">
         <v>1040.3610000000001</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="20">
         <v>960.79399999999998</v>
       </c>
-      <c r="I19" s="24">
+      <c r="I19" s="20">
         <v>1039.2619999999999</v>
       </c>
-      <c r="J19" s="24">
+      <c r="J19" s="20">
         <v>1027.47</v>
       </c>
-      <c r="K19" s="21">
+      <c r="K19" s="17">
         <f t="shared" si="0"/>
         <v>-1.1346513198789061E-2</v>
       </c>
-      <c r="L19" s="25"/>
+      <c r="L19" s="21"/>
     </row>
     <row r="20" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="24">
+      <c r="A20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="20">
         <v>47.841999999999999</v>
       </c>
-      <c r="C20" s="24">
+      <c r="C20" s="20">
         <v>42.981999999999999</v>
       </c>
-      <c r="D20" s="24">
+      <c r="D20" s="20">
         <v>52.125</v>
       </c>
-      <c r="E20" s="24">
+      <c r="E20" s="20">
         <v>48.045000000000002</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="20">
         <v>45.570999999999998</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="20">
         <v>41.372999999999998</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="20">
         <v>43.305999999999997</v>
       </c>
-      <c r="I20" s="24">
+      <c r="I20" s="20">
         <v>32.942</v>
       </c>
-      <c r="J20" s="24">
+      <c r="J20" s="20">
         <v>37.81</v>
       </c>
-      <c r="K20" s="21">
+      <c r="K20" s="17">
         <f t="shared" si="0"/>
         <v>0.14777487705664508</v>
       </c>
-      <c r="L20" s="25"/>
+      <c r="L20" s="21"/>
     </row>
     <row r="21" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="24">
+      <c r="A21" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="20">
         <v>131.227</v>
       </c>
-      <c r="C21" s="24">
+      <c r="C21" s="20">
         <v>354.40800000000002</v>
       </c>
-      <c r="D21" s="24">
+      <c r="D21" s="20">
         <v>154.554</v>
       </c>
-      <c r="E21" s="24">
+      <c r="E21" s="20">
         <v>160.52699999999999</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="20">
         <v>151.32</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="20">
         <v>157.464</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="20">
         <v>157.57900000000001</v>
       </c>
-      <c r="I21" s="24">
+      <c r="I21" s="20">
         <v>146.91</v>
       </c>
-      <c r="J21" s="24">
+      <c r="J21" s="20">
         <v>108.89</v>
       </c>
-      <c r="K21" s="21">
+      <c r="K21" s="17">
         <f t="shared" si="0"/>
         <v>-0.25879790347832005</v>
       </c>
-      <c r="L21" s="25"/>
+      <c r="L21" s="21"/>
     </row>
     <row r="22" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="24">
+      <c r="A22" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="20">
         <v>4.8780000000000001</v>
       </c>
-      <c r="C22" s="24">
+      <c r="C22" s="20">
         <v>727.10699999999997</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="20">
         <v>0</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="20">
         <v>176.96100000000001</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="20">
         <v>259.84500000000003</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="20">
         <v>263.63</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="20">
         <v>323.41699999999997</v>
       </c>
-      <c r="I22" s="24">
+      <c r="I22" s="20">
         <v>230.71199999999999</v>
       </c>
-      <c r="J22" s="24">
+      <c r="J22" s="20">
         <v>5.2800000000000296</v>
       </c>
-      <c r="K22" s="21">
+      <c r="K22" s="17">
         <f t="shared" si="0"/>
         <v>-0.97711432435243928</v>
       </c>
-      <c r="L22" s="25"/>
+      <c r="L22" s="21"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="J26" s="26"/>
+      <c r="J26" s="22"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K22">
@@ -6405,87 +5676,87 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Fig3'!B2:J2</xm:f>
+              <xm:f>'Fig2'!B2:J2</xm:f>
               <xm:sqref>L2</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B3:J3</xm:f>
+              <xm:f>'Fig2'!B3:J3</xm:f>
               <xm:sqref>L3</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B4:J4</xm:f>
+              <xm:f>'Fig2'!B4:J4</xm:f>
               <xm:sqref>L4</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B5:J5</xm:f>
+              <xm:f>'Fig2'!B5:J5</xm:f>
               <xm:sqref>L5</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B6:J6</xm:f>
+              <xm:f>'Fig2'!B6:J6</xm:f>
               <xm:sqref>L6</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B7:J7</xm:f>
+              <xm:f>'Fig2'!B7:J7</xm:f>
               <xm:sqref>L7</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B8:J8</xm:f>
+              <xm:f>'Fig2'!B8:J8</xm:f>
               <xm:sqref>L8</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B9:J9</xm:f>
+              <xm:f>'Fig2'!B9:J9</xm:f>
               <xm:sqref>L9</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B10:J10</xm:f>
+              <xm:f>'Fig2'!B10:J10</xm:f>
               <xm:sqref>L10</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B11:J11</xm:f>
+              <xm:f>'Fig2'!B11:J11</xm:f>
               <xm:sqref>L11</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B12:J12</xm:f>
+              <xm:f>'Fig2'!B12:J12</xm:f>
               <xm:sqref>L12</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B13:J13</xm:f>
+              <xm:f>'Fig2'!B13:J13</xm:f>
               <xm:sqref>L13</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B14:J14</xm:f>
+              <xm:f>'Fig2'!B14:J14</xm:f>
               <xm:sqref>L14</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B15:J15</xm:f>
+              <xm:f>'Fig2'!B15:J15</xm:f>
               <xm:sqref>L15</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B16:J16</xm:f>
+              <xm:f>'Fig2'!B16:J16</xm:f>
               <xm:sqref>L16</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B17:J17</xm:f>
+              <xm:f>'Fig2'!B17:J17</xm:f>
               <xm:sqref>L17</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B18:J18</xm:f>
+              <xm:f>'Fig2'!B18:J18</xm:f>
               <xm:sqref>L18</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B19:J19</xm:f>
+              <xm:f>'Fig2'!B19:J19</xm:f>
               <xm:sqref>L19</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B20:J20</xm:f>
+              <xm:f>'Fig2'!B20:J20</xm:f>
               <xm:sqref>L20</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B21:J21</xm:f>
+              <xm:f>'Fig2'!B21:J21</xm:f>
               <xm:sqref>L21</xm:sqref>
             </x14:sparkline>
             <x14:sparkline>
-              <xm:f>'Fig3'!B22:J22</xm:f>
+              <xm:f>'Fig2'!B22:J22</xm:f>
               <xm:sqref>L22</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
@@ -6497,625 +5768,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43B921D5-6B0F-4BBD-9441-DEA2F0115BC8}">
-  <dimension ref="A1:H23"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="30">
-        <v>57064077</v>
-      </c>
-      <c r="C2" s="30">
-        <v>28797700</v>
-      </c>
-      <c r="D2" s="30">
-        <v>25160779</v>
-      </c>
-      <c r="E2" s="30">
-        <v>1930115</v>
-      </c>
-      <c r="F2" s="30">
-        <v>821466</v>
-      </c>
-      <c r="G2" s="30">
-        <v>354017</v>
-      </c>
-      <c r="H2" s="31">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" s="33">
-        <v>29064860</v>
-      </c>
-      <c r="C3" s="33">
-        <v>5875203</v>
-      </c>
-      <c r="D3" s="33">
-        <v>23009173</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="33">
-        <v>2776</v>
-      </c>
-      <c r="G3" s="33">
-        <v>177708</v>
-      </c>
-      <c r="H3" s="35">
-        <v>50.9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="37">
-        <v>9561022</v>
-      </c>
-      <c r="C4" s="37">
-        <v>9561022</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G4" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="38">
-        <v>16.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="37">
-        <v>2771863</v>
-      </c>
-      <c r="C5" s="37">
-        <v>2771844</v>
-      </c>
-      <c r="D5" s="38">
-        <v>20</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H5" s="38">
-        <v>4.9000000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="37">
-        <v>2205695</v>
-      </c>
-      <c r="C6" s="37">
-        <v>2049610</v>
-      </c>
-      <c r="D6" s="37">
-        <v>109405</v>
-      </c>
-      <c r="E6" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G6" s="37">
-        <v>46681</v>
-      </c>
-      <c r="H6" s="38">
-        <v>3.9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="37">
-        <v>1827180</v>
-      </c>
-      <c r="C7" s="37">
-        <v>1827180</v>
-      </c>
-      <c r="D7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H7" s="38">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="36" t="s">
-        <v>46</v>
-      </c>
-      <c r="B8" s="37">
-        <v>1843454</v>
-      </c>
-      <c r="C8" s="37">
-        <v>1843454</v>
-      </c>
-      <c r="D8" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F8" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G8" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="38">
-        <v>3.2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="37">
-        <v>1606616</v>
-      </c>
-      <c r="C9" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D9" s="37">
-        <v>274293</v>
-      </c>
-      <c r="E9" s="37">
-        <v>1332323</v>
-      </c>
-      <c r="F9" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H9" s="38">
-        <v>2.8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="37">
-        <v>1552468</v>
-      </c>
-      <c r="C10" s="37">
-        <v>1026679</v>
-      </c>
-      <c r="D10" s="38">
-        <v>16</v>
-      </c>
-      <c r="E10" s="37">
-        <v>458546</v>
-      </c>
-      <c r="F10" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G10" s="37">
-        <v>67227</v>
-      </c>
-      <c r="H10" s="38">
-        <v>2.7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="B11" s="37">
-        <v>1430754</v>
-      </c>
-      <c r="C11" s="37">
-        <v>200075</v>
-      </c>
-      <c r="D11" s="37">
-        <v>1029031</v>
-      </c>
-      <c r="E11" s="37">
-        <v>139246</v>
-      </c>
-      <c r="F11" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="37">
-        <v>62402</v>
-      </c>
-      <c r="H11" s="38">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="36" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" s="37">
-        <v>1130724</v>
-      </c>
-      <c r="C12" s="37">
-        <v>980832</v>
-      </c>
-      <c r="D12" s="37">
-        <v>59982</v>
-      </c>
-      <c r="E12" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F12" s="37">
-        <v>89910</v>
-      </c>
-      <c r="G12" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H12" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B13" s="37">
-        <v>1039262</v>
-      </c>
-      <c r="C13" s="37">
-        <v>1039069</v>
-      </c>
-      <c r="D13" s="38">
-        <v>193</v>
-      </c>
-      <c r="E13" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F13" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G13" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H13" s="38">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="36" t="s">
-        <v>2</v>
-      </c>
-      <c r="B14" s="37">
-        <v>977065</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="37">
-        <v>304582</v>
-      </c>
-      <c r="E14" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F14" s="37">
-        <v>672483</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H14" s="38">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B15" s="37">
-        <v>789069</v>
-      </c>
-      <c r="C15" s="37">
-        <v>788901</v>
-      </c>
-      <c r="D15" s="38">
-        <v>168</v>
-      </c>
-      <c r="E15" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F15" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="38">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B16" s="37">
-        <v>544255</v>
-      </c>
-      <c r="C16" s="37">
-        <v>230635</v>
-      </c>
-      <c r="D16" s="37">
-        <v>313543</v>
-      </c>
-      <c r="E16" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F16" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="38">
-        <v>78</v>
-      </c>
-      <c r="H16" s="38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>48</v>
-      </c>
-      <c r="B17" s="37">
-        <v>423632</v>
-      </c>
-      <c r="C17" s="37">
-        <v>372825</v>
-      </c>
-      <c r="D17" s="37">
-        <v>50807</v>
-      </c>
-      <c r="E17" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G17" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H17" s="38">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B18" s="37">
-        <v>146910</v>
-      </c>
-      <c r="C18" s="37">
-        <v>90883</v>
-      </c>
-      <c r="D18" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F18" s="37">
-        <v>56027</v>
-      </c>
-      <c r="G18" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" s="38">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="37">
-        <v>46577</v>
-      </c>
-      <c r="C19" s="37">
-        <v>45531</v>
-      </c>
-      <c r="D19" s="37">
-        <v>1047</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H19" s="38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" s="37">
-        <v>42628</v>
-      </c>
-      <c r="C20" s="37">
-        <v>42628</v>
-      </c>
-      <c r="D20" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="37">
-        <v>33303</v>
-      </c>
-      <c r="C21" s="37">
-        <v>32941</v>
-      </c>
-      <c r="D21" s="38">
-        <v>361</v>
-      </c>
-      <c r="E21" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H21" s="38">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="37">
-        <v>16945</v>
-      </c>
-      <c r="C22" s="37">
-        <v>16942</v>
-      </c>
-      <c r="D22" s="38">
-        <v>3</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F22" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G22" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H22" s="38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="37">
-        <v>9796</v>
-      </c>
-      <c r="C23" s="37">
-        <v>1445</v>
-      </c>
-      <c r="D23" s="37">
-        <v>8351</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="H23" s="38">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE31AE7B-E6DC-4EC3-8EDA-5D75A33CF19C}">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7125,91 +5782,91 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="B3" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="B2" s="42" t="s">
+    </row>
+    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="43" t="s">
+      <c r="B4" s="38" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="44" t="s">
+    </row>
+    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="39" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="41" t="s">
+      <c r="B5" s="40" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="42" t="s">
+    </row>
+    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="37" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A5" s="43" t="s">
+      <c r="B6" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B5" s="44" t="s">
+    </row>
+    <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="41" t="s">
+      <c r="B7" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="42" t="s">
+    </row>
+    <row r="8" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="37" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="43" t="s">
+      <c r="B8" s="38" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B9" s="40" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="41" t="s">
+    <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B10" s="38" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="43" t="s">
+    <row r="11" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B11" s="40" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="41" t="s">
-        <v>76</v>
-      </c>
-      <c r="B10" s="42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A11" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B11" s="44" t="s">
-        <v>79</v>
       </c>
     </row>
   </sheetData>
